--- a/Components list.xlsx
+++ b/Components list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelaltmann/Documents/PlatformIO/Projects/sequential_shifter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC441BB3-3AF9-7E43-A531-F34860A4741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC88C8DF-8FD4-D449-B104-1F7BA17439F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="820" windowWidth="28300" windowHeight="17440" xr2:uid="{9A6C22A3-17AC-6E4A-A899-E8106FBB08E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XIAO ESP32S3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电路部分总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固定销+盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D打印部分总计(使用拓竹PLA-Matt)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +155,10 @@
   </si>
   <si>
     <t>13h13m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP-WROOM32 开发板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,20 +238,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -266,6 +250,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A352D918-C59A-B04D-9AB3-E1C4FEB9C068}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -613,31 +606,30 @@
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -648,7 +640,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -659,7 +651,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -670,7 +662,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -681,7 +673,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -692,7 +684,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -703,7 +695,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -714,7 +706,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -725,7 +717,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -736,7 +728,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -747,7 +739,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -758,22 +750,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1">
         <f>SUM(C4:C14)</f>
         <v>48.6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -788,35 +780,35 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <f>SUM(C17:C18)</f>
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5">
-        <f>SUM(C17:C18)</f>
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>338</v>
@@ -827,7 +819,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>12.95</v>
@@ -838,7 +830,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>120</v>
@@ -849,7 +841,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>140</v>
@@ -860,7 +852,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>33</v>
@@ -870,68 +862,57 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>6.7</v>
-      </c>
-      <c r="C26">
-        <v>0.5</v>
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <f>SUM(B21:B25)</f>
+        <v>643.95000000000005</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SUM(C21:C25)</f>
+        <v>44.000000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <f>SUM(B21:B26)</f>
-        <v>650.65000000000009</v>
-      </c>
-      <c r="C27" s="5">
-        <f>SUM(C21:C26)</f>
-        <v>44.500000000000007</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2">
+        <f>SUM(C15,C19,C26)</f>
+        <v>124.20000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="6">
-        <f>SUM(C15,C19,C27)</f>
-        <v>139.70000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
